--- a/excel_files/Study Review of Stack Overflow Research.xlsx
+++ b/excel_files/Study Review of Stack Overflow Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coltonpalfrey/Desktop/PASCL RA/Stack-Overflow-Data-Analysis/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E37EEC3-1449-9440-A953-D7146D42F38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC32501-F48A-1C40-967C-3210C332073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19060" xr2:uid="{C826C655-9EFE-3D43-A1C1-86A822611D27}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{C826C655-9EFE-3D43-A1C1-86A822611D27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276521BE-EC2D-8A48-96F2-2CD897B0205C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
